--- a/data/outputs/management_altmetric/75.xlsx
+++ b/data/outputs/management_altmetric/75.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE39"/>
+  <dimension ref="A1:CF39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2045,6 +2062,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2288,6 +2308,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2543,6 +2566,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2798,6 +2824,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3053,6 +3082,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3300,6 +3332,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3551,6 +3586,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3798,6 +3836,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4045,6 +4086,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4300,6 +4344,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4553,6 +4600,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4796,6 +4846,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5274,6 +5330,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5513,6 +5572,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5764,6 +5826,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6019,6 +6084,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6266,6 +6334,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6521,6 +6592,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6772,6 +6846,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7027,6 +7104,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7282,6 +7362,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7521,6 +7604,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7770,6 +7856,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8019,6 +8108,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8274,6 +8366,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8525,6 +8620,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8772,6 +8870,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9027,6 +9128,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9266,6 +9370,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9509,6 +9616,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9764,6 +9874,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10015,6 +10128,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10254,6 +10370,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
